--- a/EL SALVADOR/Indígenas/Poblacion_Indigena El Salvador Censo 2007.xlsx
+++ b/EL SALVADOR/Indígenas/Poblacion_Indigena El Salvador Censo 2007.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Indígenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92649F65-CEC3-4021-970A-262F7FB5FEC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714AAFB5-4197-4125-8A5D-BE9680E05984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1370,6 +1373,9 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1397,9 +1403,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1408,34 +1411,6 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1585,6 +1560,34 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1758,15 +1761,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EF81768-215B-477D-952B-4A98ABD4AABA}" name="Población_Indigena_por_sexo_depto_20073" displayName="Población_Indigena_por_sexo_depto_20073" ref="A1:F2621" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EF81768-215B-477D-952B-4A98ABD4AABA}" name="Población_Indigena_por_sexo_depto_20073" displayName="Población_Indigena_por_sexo_depto_20073" ref="A1:F2621" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F2621" xr:uid="{2FDD4BEF-DE53-4387-8936-F9C71A6962BE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AA4DC9AF-CD30-4F9E-B47A-2D69E76D21EA}" name="Departamentos" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{AE1A8DA6-4665-49E8-9DBA-28192EE5CEAE}" name="Municipios" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{831D5892-F8BA-4B91-A1F5-D4CBDB32B024}" name="Población" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E7D7B09B-A8FB-41A0-B54F-B90F6513ED76}" name="Pueblo Indígena" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9D274E3D-8E66-46F0-BC5F-E15C734A7359}" name="Sexo" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1B47F04B-51A6-4879-966F-21C38C77BFDC}" name="Cantidad de Personas" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AA4DC9AF-CD30-4F9E-B47A-2D69E76D21EA}" name="Departamentos" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{AE1A8DA6-4665-49E8-9DBA-28192EE5CEAE}" name="Municipios" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{831D5892-F8BA-4B91-A1F5-D4CBDB32B024}" name="Población" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E7D7B09B-A8FB-41A0-B54F-B90F6513ED76}" name="Pueblo Indígena" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9D274E3D-8E66-46F0-BC5F-E15C734A7359}" name="Sexo" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1B47F04B-51A6-4879-966F-21C38C77BFDC}" name="Cantidad de Personas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2099,127 +2102,127 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="4" width="11.7109375" style="2" customWidth="1"/>
     <col min="5" max="16" width="9.7109375" style="2" customWidth="1"/>
     <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="69"/>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60" t="s">
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
@@ -3062,7 +3065,7 @@
       <selection activeCell="O268" sqref="O268:O285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3076,111 +3079,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60" t="s">
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -11859,8 +11862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377C1C2-8A52-45AB-9F30-D15B97026844}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14282,8 +14285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E19E65B-153D-4466-9B52-7A66344F82E5}">
   <dimension ref="A1:F2621"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14312,7 +14315,7 @@
       <c r="E1" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="60" t="s">
         <v>299</v>
       </c>
     </row>

--- a/EL SALVADOR/Indígenas/Poblacion_Indigena El Salvador Censo 2007.xlsx
+++ b/EL SALVADOR/Indígenas/Poblacion_Indigena El Salvador Censo 2007.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Indígenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FCC289-1FD1-45C6-BF52-1BF5FB7F9DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D0B199-DD35-4EA9-8721-98BF8179F708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11788,7 +11788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377C1C2-8A52-45AB-9F30-D15B97026844}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -14209,10 +14209,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E19E65B-153D-4466-9B52-7A66344F82E5}">
-  <dimension ref="A1:F2621"/>
+  <dimension ref="A1:H2621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14225,7 +14225,7 @@
     <col min="6" max="6" width="22.7109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>297</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>15</v>
       </c>
@@ -14264,8 +14264,11 @@
       <c r="F2" s="32">
         <v>52808</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
@@ -14285,7 +14288,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>15</v>
       </c>
@@ -14305,7 +14308,7 @@
         <v>16238</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
@@ -14325,7 +14328,7 @@
         <v>6276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>15</v>
       </c>
@@ -14345,7 +14348,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>15</v>
       </c>
@@ -14365,7 +14368,7 @@
         <v>9487</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>15</v>
       </c>
@@ -14385,7 +14388,7 @@
         <v>13981</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>15</v>
       </c>
@@ -14405,7 +14408,7 @@
         <v>20769</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>15</v>
       </c>
@@ -14425,7 +14428,7 @@
         <v>4657</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>15</v>
       </c>
@@ -14445,7 +14448,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>15</v>
       </c>
@@ -14465,7 +14468,7 @@
         <v>14816</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>15</v>
       </c>
@@ -14485,7 +14488,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>15</v>
       </c>
@@ -14505,7 +14508,7 @@
         <v>57703</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>15</v>
       </c>
@@ -14525,7 +14528,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>15</v>
       </c>
